--- a/biology/Zoologie/Callophrys_spinetorum/Callophrys_spinetorum.xlsx
+++ b/biology/Zoologie/Callophrys_spinetorum/Callophrys_spinetorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callophrys spinetorum est une espèce nord-américaine de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,13 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Callophrys spinetorum a été décrite par William Chapman Hewitson en 1867, sous le nom initial de Thecla spinetorum[1].
-Synonymes : Mitoura spinetorum, Loranthomitoura spinetorum[1].
-Sous-espèces
-Callophrys spinetorum spinetorum
-Callophrys spinetorum millerorum Clench, 1981[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Callophrys spinetorum a été décrite par William Chapman Hewitson en 1867, sous le nom initial de Thecla spinetorum.
+Synonymes : Mitoura spinetorum, Loranthomitoura spinetorum.
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Callophrys spinetorum se nomme en anglais Thicket Hairstreak[1],[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Callophrys spinetorum spinetorum
+Callophrys spinetorum millerorum Clench, 1981.</t>
         </is>
       </c>
     </row>
@@ -573,12 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon d'une envergure de 23 mm à 32 mm avec une fine queue coudée à chaque aile postérieure présente un dessus bleu ardoisé et un verso marron doré ornementé d'une fine ligne postmédiane blanche qui forme un W[3],[4].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys spinetorum se nomme en anglais Thicket Hairstreak,.
 </t>
         </is>
       </c>
@@ -604,16 +624,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-C'est la chrysalide qui hiverne[3].
-Callophrys spinetorum vole en une génération de mai à août[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont Arceuthobium[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon d'une envergure de 23 mm à 32 mm avec une fine queue coudée à chaque aile postérieure présente un dessus bleu ardoisé et un verso marron doré ornementé d'une fine ligne postmédiane blanche qui forme un W,.
 </t>
         </is>
       </c>
@@ -639,18 +657,165 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la chrysalide qui hiverne.
+Callophrys spinetorum vole en une génération de mai à août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Arceuthobium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callophrys spinetorum est présent dans l'Ouest de l'Amérique du Nord depuis la Colombie-Britannique et le Sud-Ouest de l'Alberta jusqu'en Floride et au Mexique avec comme limite à l'est le Montana, le Wyoming, le Colorado et le Nouveau-Mexique[3].
-Biotope
-Il réside dans les forêts de conifères[3],[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callophrys spinetorum est présent dans l'Ouest de l'Amérique du Nord depuis la Colombie-Britannique et le Sud-Ouest de l'Alberta jusqu'en Floride et au Mexique avec comme limite à l'est le Montana, le Wyoming, le Colorado et le Nouveau-Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts de conifères,.
 Sur les autres projets Wikimedia :
 Callophrys spinetorum, sur Wikimedia CommonsCallophrys spinetorum, sur Wikispecies
-Protection
-Pas de statut de protection particulier[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callophrys_spinetorum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
